--- a/Testdata/LiveRef/ManageSourceData/AUT_2022_Template - new.xlsx
+++ b/Testdata/LiveRef/ManageSourceData/AUT_2022_Template - new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachinr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\LiveRef\ManageSourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE63108-C5E4-41F1-A38B-4234D2725CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE521F2-A002-4FA6-B468-E22DCF80262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t> AML</t>
   </si>
   <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
     <t> 1.2 Epidemiology</t>
   </si>
   <si>
@@ -123,13 +120,16 @@
   </si>
   <si>
     <t>Quantitative Results</t>
+  </si>
+  <si>
+    <t>http://www.google.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,7 +257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -262,19 +269,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -282,8 +290,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -574,9 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DABE5FD-2911-425E-B353-441A8DC5DF84}">
   <dimension ref="A1:R169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +596,7 @@
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="18.21875" customWidth="1"/>
@@ -603,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -612,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -624,13 +634,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>5</v>
@@ -645,16 +655,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -665,52 +675,52 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="M2" s="4">
         <v>1234</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -881,6 +891,9 @@
     <row r="168" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="169" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{25025352-D71D-4B03-9B59-10095161D94D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -922,7 +935,7 @@
   <sheetData>
     <row r="1" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -931,12 +944,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,15 +1167,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7BAB9B7-7148-4FC2-919A-8F6E750DF90B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C115A1F-52E4-4328-A9D4-614A54BC5425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1190,18 +1212,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C115A1F-52E4-4328-A9D4-614A54BC5425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7BAB9B7-7148-4FC2-919A-8F6E750DF90B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testdata/LiveRef/ManageSourceData/AUT_2022_Template - new.xlsx
+++ b/Testdata/LiveRef/ManageSourceData/AUT_2022_Template - new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\LiveRef\ManageSourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE521F2-A002-4FA6-B468-E22DCF80262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB60D16-A9D4-448E-9A81-C8540CA67A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Population</t>
   </si>
   <si>
-    <t xml:space="preserve">test </t>
-  </si>
-  <si>
     <t> AML</t>
   </si>
   <si>
@@ -122,7 +119,10 @@
     <t>Quantitative Results</t>
   </si>
   <si>
-    <t>http://www.google.com</t>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>test_Automation_Data</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -634,13 +634,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>5</v>
@@ -655,72 +655,72 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="M2" s="4">
         <v>1234</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -935,7 +935,7 @@
   <sheetData>
     <row r="1" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -944,9 +944,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,27 +1170,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C115A1F-52E4-4328-A9D4-614A54BC5425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7BAB9B7-7148-4FC2-919A-8F6E750DF90B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1212,9 +1203,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7BAB9B7-7148-4FC2-919A-8F6E750DF90B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C115A1F-52E4-4328-A9D4-614A54BC5425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>